--- a/Matlab/Cleansed_radio_track_data.xlsx
+++ b/Matlab/Cleansed_radio_track_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smatw1\Dropbox\Lucys_thesis_bats\Woolley_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smatw1\Dropbox\Lucys_thesis_bats\Bat_motion_paper\Matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A74FD0C-E986-40F4-8BA9-516F197AE27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859D894B-3783-4D76-B9A5-0D3BD0A8D4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{291EF689-72BD-450A-A25B-2A169D60C9BF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{291EF689-72BD-450A-A25B-2A169D60C9BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,7 +412,7 @@
   <dimension ref="A1:G330"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107:G116"/>
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2859,6 +2859,9 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>5</v>
+      </c>
       <c r="B107" s="1">
         <v>0.91666666666666663</v>
       </c>
